--- a/test/test_singlezone/steady_02/正解値.xlsx
+++ b/test/test_singlezone/steady_02/正解値.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF335018-B416-41F2-BD20-F1E356C08E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8678B-C486-47D0-B74E-6F187DFE10EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
@@ -772,7 +772,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:C1"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -886,7 +886,7 @@
       </c>
       <c r="D7" s="1">
         <f>1/(1/$D$4+$D$3+$D$6)</f>
-        <v>2.3047668051207966</v>
+        <v>2.3048160512773568</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="D9" s="1">
         <f>$D$7*$D$8</f>
-        <v>13.828600830724779</v>
+        <v>13.828896307664142</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="D11" s="1">
         <f>$D$2+$D$10/$D$9</f>
-        <v>7.2313895833783235</v>
+        <v>7.2312350729377286</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
